--- a/db/conference-database.xlsx
+++ b/db/conference-database.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79A5E83-EBE7-49BD-A013-F90E1CD07D94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="150" windowWidth="18780" windowHeight="9555" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="attendees" sheetId="2" r:id="rId1"/>
@@ -4479,7 +4478,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4703,7 +4702,7 @@
     <cellStyle name="Heading 2" xfId="4" builtinId="17"/>
     <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4746,7 +4745,7 @@
         <xdr:cNvPr id="2" name="Left Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4794,18 +4793,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:J63" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:J63" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 2" dataCellStyle="Normal 3">
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Name" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Domain" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Short Domain" dataCellStyle="Normal 3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Affiliate 1" dataCellStyle="Normal 3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Domain2" dataCellStyle="Normal 3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Affiliate 2" dataCellStyle="Normal 3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Domain3" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="ID" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="Category" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Type" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="Name" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Domain" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="Short Domain" dataCellStyle="Normal 3"/>
+    <tableColumn id="7" name="Affiliate 1" dataCellStyle="Normal 3"/>
+    <tableColumn id="8" name="Domain2" dataCellStyle="Normal 3"/>
+    <tableColumn id="9" name="Affiliate 2" dataCellStyle="Normal 3"/>
+    <tableColumn id="10" name="Domain3" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4887,23 +4886,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4939,23 +4921,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5131,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView topLeftCell="C13" workbookViewId="0">
@@ -8217,7 +8182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8638,11 +8603,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8784,7 +8749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8888,10 +8853,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8978,7 +8943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11247,7 +11212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11400,7 +11365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
@@ -13405,7 +13370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/db/conference-database.xlsx
+++ b/db/conference-database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="attendees" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="subnets" sheetId="9" r:id="rId8"/>
     <sheet name="domains" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4745,7 +4745,7 @@
         <xdr:cNvPr id="2" name="Left Brace 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8185,8 +8185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8606,8 +8606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
